--- a/biology/Zoologie/Cacopsylla_pyri/Cacopsylla_pyri.xlsx
+++ b/biology/Zoologie/Cacopsylla_pyri/Cacopsylla_pyri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacopsylla pyri, le ou la psylle du poirier est une petite espèce d'insectes hémiptères vivant principalement sur le poirier, mais quelquefois aussi sur le pommier ou encore le cognassier.
 Sur les autres projets Wikimedia :
